--- a/testoutput/webform.xlsx
+++ b/testoutput/webform.xlsx
@@ -3,23 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11560" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="11560" firstSheet="2" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Add Site" sheetId="2" r:id="rId2"/>
-    <sheet name="Web crawl buttons" sheetId="3" r:id="rId3"/>
-    <sheet name="Web listing page" sheetId="4" r:id="rId4"/>
-    <sheet name="Crawl Results" sheetId="5" r:id="rId5"/>
+    <sheet name="Web crawl buttons" sheetId="4" r:id="rId3"/>
+    <sheet name="Web listing page" sheetId="5" r:id="rId4"/>
+    <sheet name="Web report validate" sheetId="6" r:id="rId5"/>
+    <sheet name="Web ODD Flow" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="299">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -111,21 +111,21 @@
     <t>✔ TC_ADD_008</t>
   </si>
   <si>
+    <t>✔ Check with : Enter Valid URL and Valid Trade Name</t>
+  </si>
+  <si>
     <t>✔ Website : [ https://www.quikr.com ]    /    Trade : [ santos. inc, ]</t>
   </si>
   <si>
+    <t>Crawl submitted</t>
+  </si>
+  <si>
     <t>✔ TC_ADD_009</t>
   </si>
   <si>
-    <t>✔ Check with : Enter Valid URL and Valid Trade Name</t>
-  </si>
-  <si>
     <t>✔ Website : [ https://www.amazon.com ]    /    Trade : [ amazon ]</t>
   </si>
   <si>
-    <t>Crawl submitted</t>
-  </si>
-  <si>
     <t>Actual Output</t>
   </si>
   <si>
@@ -573,16 +573,13 @@
     <t xml:space="preserve"> ✔ [ Progress bar select 100 button ] should display</t>
   </si>
   <si>
-    <t>Check web crawl list data</t>
+    <t>Check web crawl list page</t>
   </si>
   <si>
     <t>✔ Check =  [ Case id ]  =  Present or Not</t>
   </si>
   <si>
-    <t xml:space="preserve">✔ Website :  ['https://www.purplepatchfarms.in/']  /     Trade :  ['Horizon Holdings'] </t>
-  </si>
-  <si>
-    <t>✔ Case id    :   [ XtTgp2AQiEubDzcWgSXjiv ]  =  Present</t>
+    <t>✔ Case id    :   [ 3gdhGSteUb7aekodxYSwzX ]  =  Present</t>
   </si>
   <si>
     <t>✔ [ Case id ]  should present</t>
@@ -600,7 +597,7 @@
     <t>✔ Check =  [ Trade Name ]  =  Present or Not</t>
   </si>
   <si>
-    <t>✔ Trade Name    :   [ Horizon Holdings ]  =  Present</t>
+    <t>✔ Trade Name    :   [ Amazon ]  =  Present</t>
   </si>
   <si>
     <t>✔ [ Trade Name ]  should present</t>
@@ -609,7 +606,7 @@
     <t>✔ Check =  [ Created date ]  =  Present or Not</t>
   </si>
   <si>
-    <t>✔ Created date    :   [ Check the  CREATED DATE &amp; TIME  ]  =  Present</t>
+    <t>✔ Created date    :   [ 10 Jun 2024 12:59 PM ]  =  Present</t>
   </si>
   <si>
     <t>✔ [ Created date ]  should present</t>
@@ -618,7 +615,7 @@
     <t>✔ Check =  [ Crawling Percentage ]  =  Present or Not</t>
   </si>
   <si>
-    <t>✔ Crawling Percentage    :   [ 50 % ]  =  Present</t>
+    <t>✔ Crawling Percentage    :   [ 80 ]  =  Present</t>
   </si>
   <si>
     <t>✔ [ Crawling Percentage ]  should present</t>
@@ -627,7 +624,7 @@
     <t>✔ Check =  [ Crawling Status ]  =  Present or Not</t>
   </si>
   <si>
-    <t>✔ Crawling Status    :   [ Initiated ]  =  Present</t>
+    <t>✔ Crawling Status    :   [ Completed ]  =  Present</t>
   </si>
   <si>
     <t>✔ [ Crawling Status ]  should present</t>
@@ -636,7 +633,7 @@
     <t>✔ Check =  [ Risk status ]  =  Present or Not</t>
   </si>
   <si>
-    <t>✔ Risk status    :   [ Pending ]  =  Present</t>
+    <t>✔ Risk status    :   [ 80 [High] ]  =  Present</t>
   </si>
   <si>
     <t>✔ [ Risk status ]  should present</t>
@@ -645,160 +642,280 @@
     <t>✔ Check =  [ Risk score ]  =  Present or Not</t>
   </si>
   <si>
-    <t>✔ Risk score    :   [ 100 ]  =  Present</t>
+    <t>✔ Risk score    :   [ 80 [High] ]  =  Present</t>
   </si>
   <si>
     <t>✔ [ Risk score ]  should present</t>
   </si>
   <si>
-    <t>✔ Check crawl results</t>
-  </si>
-  <si>
-    <t>✔ Check  =  [ Crawled Website ]  =  present or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">✔ Website : ['https://www.nasa.gov']   /   Trade : ['SmartSolutions'] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">✔ [ Crawled Website ]   :  [ ['https://www.nasa.gov'] ]  =  present </t>
-  </si>
-  <si>
-    <t xml:space="preserve">✔ [ Crawled Website ] =  should present </t>
-  </si>
-  <si>
-    <t>✔ Check  =  [ Trade Name ]  =  present or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">✔ [ Trade Name ]   :  [ ['SmartSolutions'] ]  =  present </t>
-  </si>
-  <si>
-    <t xml:space="preserve">✔ [ Trade Name ] =  should present </t>
-  </si>
-  <si>
-    <t>✔ Check  =  [ Case id ]  =  present or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">✔ [ Case id ]   :  [ XtTgp2AQiEubDzcWgSXjiv ]  =  present </t>
-  </si>
-  <si>
-    <t xml:space="preserve">✔ [ Case id ] =  should present </t>
-  </si>
-  <si>
-    <t>✔ Check  =  [ Risk Triggered ]  =  present or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">✔ [ Risk Triggered ]   :  [ 100 ]  =  present </t>
-  </si>
-  <si>
-    <t xml:space="preserve">✔ [ Risk Triggered ] =  should present </t>
-  </si>
-  <si>
-    <t>✔ Check  =  [ Crawling Percentage ]  =  present or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">✔ [ Crawling Percentage ]   :  [ 50 % ]  =  present </t>
-  </si>
-  <si>
-    <t xml:space="preserve">✔ [ Crawling Percentage ] =  should present </t>
-  </si>
-  <si>
-    <t>✔ Check  =  [ Crawling Status ]  =  present or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">✔ [ Crawling Status ]   :  [ In Progress ]  =  present </t>
-  </si>
-  <si>
-    <t xml:space="preserve">✔ [ Crawling Status ] =  should present </t>
-  </si>
-  <si>
-    <t>✔ Check  =  [ Risk status ]  =  present or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">✔ [ Risk status ]   :  [ Pending ]  =  present </t>
-  </si>
-  <si>
-    <t xml:space="preserve">✔ [ Risk status ] =  should present </t>
-  </si>
-  <si>
-    <t>✔ Check  =  [ MCC Business ]  =  present or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">✔ [ MCC Business ]   :  [ Business Classification : - ]  =  present </t>
-  </si>
-  <si>
-    <t xml:space="preserve">✔ [ MCC Business ] =  should present </t>
-  </si>
-  <si>
-    <t>✔ Check  =  [ MCC Risk ]  =  present or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">✔ [ MCC Risk ]   :  [ MCC Risk Classification : Untrackable ]  =  present </t>
-  </si>
-  <si>
-    <t xml:space="preserve">✔ [ MCC Risk ] =  should present </t>
-  </si>
-  <si>
-    <t>✔ Check  =  [ Website belongs MCC ]  =  present or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">✔ [ Website belongs MCC ]   :  [ Highly Transacting MCC's : Untrackable ]  =  present </t>
-  </si>
-  <si>
-    <t xml:space="preserve">✔ [ Website belongs MCC ] =  should present </t>
-  </si>
-  <si>
-    <t>✔ Check  =  [ Crawled Trade Name ]  =  present or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">✔ [ Crawled Trade Name ]   :  [ Purple Patch Farms : purplepatchfarms.in ]  =  present </t>
-  </si>
-  <si>
-    <t xml:space="preserve">✔ [ Crawled Trade Name ] =  should present </t>
-  </si>
-  <si>
-    <t>✔ Check  =  [ Contact url ]  =  present or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">✔ [ Contact url ]   :  [ Contact Url : - ]  =  present </t>
-  </si>
-  <si>
-    <t xml:space="preserve">✔ [ Contact url ] =  should present </t>
-  </si>
-  <si>
-    <t>✔ Check  =  [ Phone status ]  =  present or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">✔ [ Phone status ]   :  [ Phone Found : Untrackable ]  =  present </t>
-  </si>
-  <si>
-    <t xml:space="preserve">✔ [ Phone status ] =  should present </t>
-  </si>
-  <si>
-    <t>✔ Check  =  [ Email status ]  =  present or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">✔ [ Email status ]   :  [ Email Found : Untrackable ]  =  present </t>
-  </si>
-  <si>
-    <t xml:space="preserve">✔ [ Email status ] =  should present </t>
-  </si>
-  <si>
-    <t>✔ Check  =  [ Crawled Phone ]  =  present or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">✔ [ Crawled Phone ]   :  [ Phone : - ]  =  present </t>
-  </si>
-  <si>
-    <t xml:space="preserve">✔ [ Crawled Phone ] =  should present </t>
-  </si>
-  <si>
-    <t>✔ Check  =  [ Crawled Email ]  =  present or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">✔ [ Crawled Email ]   :  [ Email : - ]  =  present </t>
-  </si>
-  <si>
-    <t xml:space="preserve">✔ [ Crawled Email ] =  should present </t>
+    <t>Actual Web List output</t>
+  </si>
+  <si>
+    <t>Actual History List output</t>
+  </si>
+  <si>
+    <t>Validate Web List and Report List</t>
+  </si>
+  <si>
+    <t>✔  [ Case id ]  =  Should be same</t>
+  </si>
+  <si>
+    <t xml:space="preserve">✔  [3gdhGSteUb7aekodxYSwzX] </t>
+  </si>
+  <si>
+    <t>✔ [3gdhGSteUb7aekodxYSwzX]</t>
+  </si>
+  <si>
+    <t>✔  [ Crawled Website ]  =  Should be same</t>
+  </si>
+  <si>
+    <t xml:space="preserve">✔  [https://www.amazon.com] </t>
+  </si>
+  <si>
+    <t>✔ [https://www.amazon.com]</t>
+  </si>
+  <si>
+    <t>✔  [ Trade Name ]  =  Should be same</t>
+  </si>
+  <si>
+    <t xml:space="preserve">✔  [Amazon] </t>
+  </si>
+  <si>
+    <t>✔ [Amazon]</t>
+  </si>
+  <si>
+    <t>✔  [ Crawl start date ]  =  Should be same</t>
+  </si>
+  <si>
+    <t xml:space="preserve">✔  [10 Jun 2024 12:59 PM] </t>
+  </si>
+  <si>
+    <t>✔ [10 Jun 2024 12:59 PM]</t>
+  </si>
+  <si>
+    <t>✔  [ Crawling Status ]  =  Should be same</t>
+  </si>
+  <si>
+    <t xml:space="preserve">✔  [Completed] </t>
+  </si>
+  <si>
+    <t>✔ [Completed]</t>
+  </si>
+  <si>
+    <t>✔  [ Risk level ]  =  Should be same</t>
+  </si>
+  <si>
+    <t xml:space="preserve">✔  [80 [High]] </t>
+  </si>
+  <si>
+    <t>✔ [High]</t>
+  </si>
+  <si>
+    <t>✔  [ Risk score ]  =  Should be same</t>
+  </si>
+  <si>
+    <t>✔ [80]</t>
+  </si>
+  <si>
+    <t>Actual Parent output</t>
+  </si>
+  <si>
+    <t>Actual Child output</t>
+  </si>
+  <si>
+    <t>Check Run ODD flow</t>
+  </si>
+  <si>
+    <t>✔ Validate Crawling RESULT type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">✔ Parent  :  ['Parent'] </t>
+  </si>
+  <si>
+    <t>✔ Child  :  ['Child-On Demand']</t>
+  </si>
+  <si>
+    <t>✔ Parent and Child data should present</t>
+  </si>
+  <si>
+    <t>✔ Validate Crawling START time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">✔ Parent  :  ['10 Jun 2024 12:19:38 PM'] </t>
+  </si>
+  <si>
+    <t>✔ Child  :  ['10 Jun 2024 12:19:58 PM']</t>
+  </si>
+  <si>
+    <t>✔ Validate Crawling END time</t>
+  </si>
+  <si>
+    <t>✔ Child  :  ['10 Jun 2024 12:22:28 PM']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">✔ Validate Crawling CASE ID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">✔ Parent  :  ['Case ID : rMEUSh7VLEhHHprXK9vKWD'] </t>
+  </si>
+  <si>
+    <t>✔ Child  :  ['Sub-Case ID : d2FEnVGH6SDVBaYMvApoAi']</t>
+  </si>
+  <si>
+    <t>✔ Validate Crawling CREATED BY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">✔ Parent  :  ['Created By : Albert'] </t>
+  </si>
+  <si>
+    <t>✔ Child  :  ['Created By : Albert']</t>
+  </si>
+  <si>
+    <t>✔ Validate Crawling COMPLETED Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">✔ Parent  :  ['Completed -100%'] </t>
+  </si>
+  <si>
+    <t>✔ Child  :  ['Completed -100%']</t>
+  </si>
+  <si>
+    <t>✔ Validate TRADE Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">✔ Parent  :  ['Khazana Jewellery Pvt Ltd : https://www.khazanajewellery.com'] </t>
+  </si>
+  <si>
+    <t>✔ Child  :  ['Khazana Jewellery Pvt Ltd : https://www.khazanajewellery.com']</t>
+  </si>
+  <si>
+    <t>✔ Validate MCC Risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">✔ Parent  :  ['MCC Risk Classification : Website belongs to High Risk MCC'] </t>
+  </si>
+  <si>
+    <t>✔ Child  :  ['MCC Risk Classification : Website belongs to High Risk MCC']</t>
+  </si>
+  <si>
+    <t>✔ Validate Crawling STATUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">✔ Parent  :  ['Completed'] </t>
+  </si>
+  <si>
+    <t>✔ Child  :  ['Completed']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">✔ Parent  :  ['100%'] </t>
+  </si>
+  <si>
+    <t>✔ Child  :  ['100%']</t>
+  </si>
+  <si>
+    <t>✔ Validate MCC Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">✔ Parent  :  ['Business Classification : 5944'] </t>
+  </si>
+  <si>
+    <t>✔ Child  :  ['Business Classification : 5944']</t>
+  </si>
+  <si>
+    <t>✔ Validate MCC Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">✔ Parent  :  [''] </t>
+  </si>
+  <si>
+    <t>✔ Child  :  ['']</t>
+  </si>
+  <si>
+    <t>✔ Validate MCC Transactionable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">✔ Parent  :  ["Highly Transacting MCC's : No risk identified"] </t>
+  </si>
+  <si>
+    <t>✔ Child  :  ["Highly Transacting MCC's : No risk identified"]</t>
+  </si>
+  <si>
+    <t>✔ Validate Crawled PHONE Risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">✔ Parent  :  ["Phone Found : Mx's mobile contact info identified"] </t>
+  </si>
+  <si>
+    <t>✔ Child  :  ["Phone Found : Mx's mobile contact info identified"]</t>
+  </si>
+  <si>
+    <t>✔ Validate Crawled EMAIL Risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">✔ Parent  :  ["Email Found : Mx's email contact info identified"] </t>
+  </si>
+  <si>
+    <t>✔ Child  :  ["Email Found : Mx's email contact info identified"]</t>
+  </si>
+  <si>
+    <t>✔ Validate Crawled Contact URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">✔ Parent  :  ['Contact Url : https://www.khazanajewellery.com/?page_id=82'] </t>
+  </si>
+  <si>
+    <t>✔ Child  :  ['Contact Url : https://www.khazanajewellery.com/?page_id=82']</t>
+  </si>
+  <si>
+    <t>✔ Validate Crawled PHONE NUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">✔ Parent  :  ['Phone : +91 (044) 4229770, 9677291234'] </t>
+  </si>
+  <si>
+    <t>✔ Child  :  ['Phone : +91 (044) 4229770, 9677291234']</t>
+  </si>
+  <si>
+    <t>✔ Validate GAME Info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">✔ Parent  :  ['No'] </t>
+  </si>
+  <si>
+    <t>✔ Child  :  ['No']</t>
+  </si>
+  <si>
+    <t>✔ Validate PHARMECEUTICAL Info</t>
+  </si>
+  <si>
+    <t>✔ Validate PROHIBITED Info</t>
+  </si>
+  <si>
+    <t>✔ Validate MALWARE Info</t>
+  </si>
+  <si>
+    <t>✔ Validate SPAM Info</t>
+  </si>
+  <si>
+    <t>✔ Validate UNTRUSTED Downloads Info</t>
+  </si>
+  <si>
+    <t>✔ Validate RUN ODD Txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">✔ Parent  :  ['Run ODD'] </t>
+  </si>
+  <si>
+    <t>✔ Child  :  ['Run ODD']</t>
+  </si>
+  <si>
+    <t>✔ Validate HISTORY ODD Txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">✔ Parent  :  ['ODD History'] </t>
+  </si>
+  <si>
+    <t>✔ Child  :  ['ODD History']</t>
   </si>
 </sst>
 </file>
@@ -806,10 +923,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -827,6 +944,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -836,7 +999,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -850,32 +1035,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -890,54 +1059,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -949,23 +1073,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -980,7 +1097,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,13 +1175,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,19 +1235,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1034,19 +1259,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,109 +1277,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1189,17 +1306,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1208,7 +1319,48 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1228,43 +1380,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1277,165 +1403,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1491,7 +1613,7 @@
     <cellStyle name="Percent" xfId="47" builtinId="5"/>
     <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1501,7 +1623,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1511,39 +1633,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1575,6 +1697,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1609,6 +1732,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1620,160 +1744,131 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1803,40 +1898,40 @@
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="14.0625" customWidth="1"/>
-    <col min="2" max="2" width="15.9375" customWidth="1"/>
-    <col min="3" max="3" width="59.5625" customWidth="1"/>
-    <col min="4" max="4" width="56.75" customWidth="1"/>
-    <col min="5" max="6" width="32.9375" customWidth="1"/>
-    <col min="7" max="7" width="6.8125" customWidth="1"/>
+    <col min="1" max="1" width="14.0625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.9375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="59.5625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="56.75" style="1" customWidth="1"/>
+    <col min="5" max="6" width="32.9375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.8125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1986,16 +2081,16 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -2003,22 +2098,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
@@ -2035,8 +2130,8 @@
   <sheetPr/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -2050,24 +2145,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -2087,7 +2182,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -2107,7 +2202,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -2127,7 +2222,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -2147,7 +2242,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -2167,7 +2262,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -2187,7 +2282,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -2207,7 +2302,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -2227,7 +2322,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -2247,7 +2342,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -2267,7 +2362,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -2287,7 +2382,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -2307,7 +2402,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -2327,7 +2422,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -2347,7 +2442,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -2367,7 +2462,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -2387,7 +2482,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -2407,7 +2502,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -2427,7 +2522,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -2447,7 +2542,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -2467,7 +2562,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -2487,7 +2582,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
       <c r="B23" t="s">
@@ -2507,7 +2602,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24" t="s">
@@ -2527,7 +2622,7 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25" t="s">
@@ -2547,7 +2642,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26" t="s">
@@ -2567,7 +2662,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
       <c r="B27" t="s">
@@ -2587,7 +2682,7 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
       <c r="B28" t="s">
@@ -2607,7 +2702,7 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
       <c r="B29" t="s">
@@ -2627,7 +2722,7 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
       <c r="B30" t="s">
@@ -2647,7 +2742,7 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
       <c r="B31" t="s">
@@ -2667,7 +2762,7 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
       <c r="B32" t="s">
@@ -2687,7 +2782,7 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
       <c r="B33" t="s">
@@ -2707,7 +2802,7 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
       <c r="B34" t="s">
@@ -2727,7 +2822,7 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
       <c r="B35" t="s">
@@ -2747,7 +2842,7 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
       <c r="B36" t="s">
@@ -2767,7 +2862,7 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>35</v>
       </c>
       <c r="B37" t="s">
@@ -2787,7 +2882,7 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>36</v>
       </c>
       <c r="B38" t="s">
@@ -2807,7 +2902,7 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>37</v>
       </c>
       <c r="B39" t="s">
@@ -2827,7 +2922,7 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>38</v>
       </c>
       <c r="B40" t="s">
@@ -2847,7 +2942,7 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>39</v>
       </c>
       <c r="B41" t="s">
@@ -2867,7 +2962,7 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>40</v>
       </c>
       <c r="B42" t="s">
@@ -2887,7 +2982,7 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>41</v>
       </c>
       <c r="B43" t="s">
@@ -2907,7 +3002,7 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>42</v>
       </c>
       <c r="B44" t="s">
@@ -2927,7 +3022,7 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>43</v>
       </c>
       <c r="B45" t="s">
@@ -2947,7 +3042,7 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="1">
+      <c r="A46" s="2">
         <v>44</v>
       </c>
       <c r="B46" t="s">
@@ -2967,7 +3062,7 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="1">
+      <c r="A47" s="2">
         <v>45</v>
       </c>
       <c r="B47" t="s">
@@ -2987,7 +3082,7 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="1">
+      <c r="A48" s="2">
         <v>46</v>
       </c>
       <c r="B48" t="s">
@@ -3007,7 +3102,7 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="1">
+      <c r="A49" s="2">
         <v>47</v>
       </c>
       <c r="B49" t="s">
@@ -3027,7 +3122,7 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="1">
+      <c r="A50" s="2">
         <v>48</v>
       </c>
       <c r="B50" t="s">
@@ -3055,45 +3150,41 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="2" max="2" width="22.9375" customWidth="1"/>
-    <col min="3" max="3" width="46.75" customWidth="1"/>
-    <col min="4" max="4" width="72" customWidth="1"/>
-    <col min="5" max="5" width="61.6875" customWidth="1"/>
-    <col min="6" max="6" width="36.4375" customWidth="1"/>
-    <col min="7" max="7" width="6.8125" customWidth="1"/>
+    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="50.3125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.4375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.8125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:6">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -3109,170 +3200,146 @@
         <v>187</v>
       </c>
       <c r="F2" t="s">
-        <v>188</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>184</v>
       </c>
       <c r="C3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" t="s">
         <v>189</v>
-      </c>
-      <c r="D3" t="s">
-        <v>186</v>
       </c>
       <c r="E3" t="s">
         <v>190</v>
       </c>
       <c r="F3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>184</v>
       </c>
       <c r="C4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" t="s">
         <v>192</v>
-      </c>
-      <c r="D4" t="s">
-        <v>186</v>
       </c>
       <c r="E4" t="s">
         <v>193</v>
       </c>
       <c r="F4" t="s">
-        <v>194</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>184</v>
       </c>
       <c r="C5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" t="s">
         <v>195</v>
-      </c>
-      <c r="D5" t="s">
-        <v>186</v>
       </c>
       <c r="E5" t="s">
         <v>196</v>
       </c>
       <c r="F5" t="s">
-        <v>197</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>184</v>
       </c>
       <c r="C6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" t="s">
         <v>198</v>
-      </c>
-      <c r="D6" t="s">
-        <v>186</v>
       </c>
       <c r="E6" t="s">
         <v>199</v>
       </c>
       <c r="F6" t="s">
-        <v>200</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>184</v>
       </c>
       <c r="C7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" t="s">
         <v>201</v>
-      </c>
-      <c r="D7" t="s">
-        <v>186</v>
       </c>
       <c r="E7" t="s">
         <v>202</v>
       </c>
       <c r="F7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>184</v>
       </c>
       <c r="C8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" t="s">
         <v>204</v>
-      </c>
-      <c r="D8" t="s">
-        <v>186</v>
       </c>
       <c r="E8" t="s">
         <v>205</v>
       </c>
       <c r="F8" t="s">
-        <v>206</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>184</v>
       </c>
       <c r="C9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" t="s">
         <v>207</v>
-      </c>
-      <c r="D9" t="s">
-        <v>186</v>
       </c>
       <c r="E9" t="s">
         <v>208</v>
       </c>
       <c r="F9" t="s">
-        <v>209</v>
-      </c>
-      <c r="G9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3285,242 +3352,424 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="29.6875" customWidth="1"/>
+    <col min="3" max="3" width="37.1875" customWidth="1"/>
+    <col min="4" max="4" width="29.3125" customWidth="1"/>
+    <col min="5" max="5" width="28.25" customWidth="1"/>
+    <col min="6" max="6" width="6.8125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E5" t="s">
+        <v>223</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E8" t="s">
+        <v>231</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="19.3125" customWidth="1"/>
-    <col min="3" max="3" width="48.4375" customWidth="1"/>
-    <col min="4" max="4" width="58.625" customWidth="1"/>
-    <col min="5" max="5" width="74.75" customWidth="1"/>
-    <col min="6" max="6" width="40.25" customWidth="1"/>
-    <col min="7" max="7" width="6.8125" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.9375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="68.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="66.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.8125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" t="s">
+        <v>246</v>
+      </c>
+      <c r="F5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E6" t="s">
+        <v>249</v>
+      </c>
+      <c r="F6" t="s">
+        <v>238</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="B7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F3" t="s">
-        <v>217</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D4" t="s">
-        <v>212</v>
-      </c>
-      <c r="E4" t="s">
-        <v>219</v>
-      </c>
-      <c r="F4" t="s">
-        <v>220</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C5" t="s">
-        <v>221</v>
-      </c>
-      <c r="D5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E5" t="s">
-        <v>222</v>
-      </c>
-      <c r="F5" t="s">
-        <v>223</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E6" t="s">
-        <v>225</v>
-      </c>
-      <c r="F6" t="s">
-        <v>226</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>210</v>
-      </c>
-      <c r="C7" t="s">
-        <v>227</v>
-      </c>
-      <c r="D7" t="s">
-        <v>212</v>
-      </c>
-      <c r="E7" t="s">
-        <v>228</v>
-      </c>
-      <c r="F7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
       <c r="B8" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="C8" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="D8" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="E8" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="F8" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="C9" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="D9" t="s">
-        <v>212</v>
+        <v>257</v>
       </c>
       <c r="E9" t="s">
+        <v>258</v>
+      </c>
+      <c r="F9" t="s">
+        <v>238</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>234</v>
       </c>
-      <c r="F9" t="s">
-        <v>235</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>210</v>
-      </c>
       <c r="C10" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="D10" t="s">
-        <v>212</v>
+        <v>260</v>
       </c>
       <c r="E10" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="F10" t="s">
         <v>238</v>
@@ -3530,163 +3779,370 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="C11" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="D11" t="s">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="E11" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="F11" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="C12" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="D12" t="s">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="E12" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="F12" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="C13" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="D13" t="s">
-        <v>212</v>
+        <v>268</v>
       </c>
       <c r="E13" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="F13" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="C14" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="D14" t="s">
-        <v>212</v>
+        <v>271</v>
       </c>
       <c r="E14" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="F14" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="G14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="C15" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="D15" t="s">
-        <v>212</v>
+        <v>274</v>
       </c>
       <c r="E15" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="F15" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="C16" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="D16" t="s">
-        <v>212</v>
+        <v>277</v>
       </c>
       <c r="E16" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="F16" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="G16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="C17" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="D17" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="E17" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="F17" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="G17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>234</v>
+      </c>
+      <c r="C18" t="s">
+        <v>282</v>
+      </c>
+      <c r="D18" t="s">
+        <v>283</v>
+      </c>
+      <c r="E18" t="s">
+        <v>284</v>
+      </c>
+      <c r="F18" t="s">
+        <v>238</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>234</v>
+      </c>
+      <c r="C19" t="s">
+        <v>285</v>
+      </c>
+      <c r="D19" t="s">
+        <v>286</v>
+      </c>
+      <c r="E19" t="s">
+        <v>287</v>
+      </c>
+      <c r="F19" t="s">
+        <v>238</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>234</v>
+      </c>
+      <c r="C20" t="s">
+        <v>288</v>
+      </c>
+      <c r="D20" t="s">
+        <v>286</v>
+      </c>
+      <c r="E20" t="s">
+        <v>287</v>
+      </c>
+      <c r="F20" t="s">
+        <v>238</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C21" t="s">
+        <v>289</v>
+      </c>
+      <c r="D21" t="s">
+        <v>286</v>
+      </c>
+      <c r="E21" t="s">
+        <v>287</v>
+      </c>
+      <c r="F21" t="s">
+        <v>238</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>234</v>
+      </c>
+      <c r="C22" t="s">
+        <v>290</v>
+      </c>
+      <c r="D22" t="s">
+        <v>286</v>
+      </c>
+      <c r="E22" t="s">
+        <v>287</v>
+      </c>
+      <c r="F22" t="s">
+        <v>238</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>234</v>
+      </c>
+      <c r="C23" t="s">
+        <v>291</v>
+      </c>
+      <c r="D23" t="s">
+        <v>286</v>
+      </c>
+      <c r="E23" t="s">
+        <v>287</v>
+      </c>
+      <c r="F23" t="s">
+        <v>238</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>234</v>
+      </c>
+      <c r="C24" t="s">
+        <v>292</v>
+      </c>
+      <c r="D24" t="s">
+        <v>286</v>
+      </c>
+      <c r="E24" t="s">
+        <v>287</v>
+      </c>
+      <c r="F24" t="s">
+        <v>238</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>234</v>
+      </c>
+      <c r="C25" t="s">
+        <v>293</v>
+      </c>
+      <c r="D25" t="s">
+        <v>294</v>
+      </c>
+      <c r="E25" t="s">
+        <v>295</v>
+      </c>
+      <c r="F25" t="s">
+        <v>238</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>234</v>
+      </c>
+      <c r="C26" t="s">
+        <v>296</v>
+      </c>
+      <c r="D26" t="s">
+        <v>297</v>
+      </c>
+      <c r="E26" t="s">
+        <v>298</v>
+      </c>
+      <c r="F26" t="s">
+        <v>238</v>
+      </c>
+      <c r="G26" t="s">
         <v>12</v>
       </c>
     </row>
